--- a/Mismatched target (2bp).xlsx
+++ b/Mismatched target (2bp).xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juyoungshin/Dropbox/Codes/seqeuence_manipulation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56736776-951D-8247-9741-19DBF6C3464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="2 bp MM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="369">
   <si>
     <t>Original sequence</t>
   </si>
@@ -37,6 +31,9 @@
     <t>TCTATTTAACTGCCTAGTCGAACTCAATATCTCC</t>
   </si>
   <si>
+    <t>AAATTTTAATCTCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
     <t>TCTATTTAtgTGCCTAGTCGAACTCAATATCTCC</t>
   </si>
   <si>
@@ -94,490 +91,1033 @@
     <t>TCTATTTAACTGCCTAGTCGAACTCAtaATCTCC</t>
   </si>
   <si>
+    <t>TCTATTTAACTGCCTAcTCcAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGgCTAGTCGAtCTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTGCCTAGTCGAACTCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGAACTCtAaATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTGCCTAGTgGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAAgTGCCTAGTCcAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGtAgTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGAACTgAAaATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTtGTCGtACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTcCCTAGTCGAACTCAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTGCgTAGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCaGCCTAGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTGCCTtGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCaAGTCcAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTtGTCGAACTgAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCaAGTCGAACTgAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCgTAGTCGAACTCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACaGCCTAGTCGAACTCAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGaCcAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAAgTGgCTAGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGgCTAGTgGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACaGCCTAGTCGAACTgAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGaCGAACaCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACaGCCTAGTCGAtCTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGtACaCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGAtCaCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTgGtACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAAgTGCCTAGTgGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACaGCCTAGaCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACaGCgTAGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGaCGAACTCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAAgTGCCTAGTCGAACTCAAaATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTtGTCGAtCTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTGCCTAGTCGtACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGgCTAGTCGAACTCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTGCCTAcTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTGCCTAGTCGAACTCAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACaGCCTAGTgGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTtGTCGAACTCAAaATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCcAtCTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGAtCTCAAaATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGaCGAACTCAAaATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCgTAGTgGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGtACTCAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCaAcTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAcTCGAACTgAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGaCGAtCTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAcTCGAACTCAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCcAACTCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTcCCTAGTCcAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTcCCTAGTCGAACTCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTcCCTAGTCGAACTCAAaATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCaAGTCGAtCTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTGCCaAGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGAACaCAAaATCTCC</t>
+  </si>
+  <si>
     <t>TCTATTTAACTGCCTAcTCGAAgTCAATATCTCC</t>
   </si>
   <si>
-    <t>TCTATTTAACaGCgTAGTCGAACTCAATATCTCC</t>
+    <t>TCTATTTAACTGCCTAGTCGtACTCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACaGCCTAGTCGAAgTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGAAgTCAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTcCCTAcTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTcCCTAGTCGAACTgAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACaGCCTAGTCcAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGgCTAcTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAAgTGCCTAGTCGAAgTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTcCCTAGTCGtACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCgTAGTCGAACTgAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGAACaCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGAACaCAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAAgTGCCTAGTCGAACTCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTGCCTAGTCcAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGAtCTCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCgTAGTCGtACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGgCTAGTCcAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCaAGTCGAAgTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTtGTCcAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCaAGTCGAACaCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTcCCaAGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGtACTgAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAcTCGtACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAAgTGCCaAGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCgTAGTCGAACTCAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAAgTGCCTAGTCGAtCTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACaGCCTAGTCGtACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAAgTGCCTtGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCcAACTCAAaATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCcAACTgAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAAgTGCCTAcTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCcAACTCAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGAtCTgAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGgCTAGTCGAACTCAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACaGgCTAGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCaAGTCGAACTCAAaATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCaAGTCGtACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGtACTCAAaATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCgTAGTCcAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTtGaCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCgTAGTCGAtCTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTtGTgGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAcTgGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCgTtGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTGCCTAGTCGAACTCAAaATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACaGCCTAcTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACaGCCTAGTCGAACTCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGaCGtACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTgGAACTCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGaCGAAgTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAcTCGAACTCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTGCCTAGTCGAtCTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTtGTCGAACTCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGAAgTCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAAgTGCCTAGTCGAACTCAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGgCaAGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGAAgTCAAaATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTgGAtCTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGgCTAGTCGAACTgAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCaAGTCGAACTCtATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTGCCTAGTCGAACTgAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGgCTAGTCGAACaCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTGCCTAGaCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCgTAGTCGAAgTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTgGAACTgAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCgTAGTCGAACTCAAaATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTGCCTAGTCGAAgTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCgTAcTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTgGAACTCAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACaGCCaAGTCGAACTCAATATCTCC</t>
   </si>
   <si>
     <t>TCTATTTAAgTcCCTAGTCGAACTCAATATCTCC</t>
   </si>
   <si>
+    <t>TCTATTTAACTGCCTtGTCGAACTCAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAAgTGCgTAGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAcTCGAACTCAAaATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACaGCCTAGTCGAACaCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCgTAGaCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTcCCTAGaCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGaCGAACTgAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTcCCTAGTCGAACaCAATATCTCC</t>
+  </si>
+  <si>
     <t>TCTATTTAACaGCCTAGTCGAACTCAAaATCTCC</t>
   </si>
   <si>
-    <t>TCTATTTAACTGCCTAGTCGAACaCtATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTGCCTAGTCGAACTCAAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGtACTCAAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCaAGTCGAACaCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAcTCGAtCTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAcTCcAACTCAATATCTCC</t>
+    <t>TCTATTTAACTGCCTAGTCGAAgTgAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTtGTCGAAgTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTgGAACTCAAaATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGgCTAGTCGtACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAAgTGCCTAGTCGAACaCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGAACTgAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCcAAgTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTcCCTAGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTcCCTAGTCGAAgTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTcCCTAGTCGAtCTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTcCCTAGTgGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCaAGTgGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCgTAGTCGAACaCAATATCTCC</t>
   </si>
   <si>
     <t>TCTATTTAACTGCCTAGTCcAACaCAATATCTCC</t>
   </si>
   <si>
+    <t>TCTATTTAACTGCCTAGTgGAAgTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTgGAACaCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAcTCGAACaCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGgCTtGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGgCTAGaCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGTCGAtCTCAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAtCTGgCTAGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACTGCCTAGaCGAACTCAtTATCTCC</t>
+  </si>
+  <si>
+    <t>TCTATTTAACaGCCTtGTCGAACTCAATATCTCC</t>
+  </si>
+  <si>
     <t>TCTATTTAAgTGCCTAGTCGtACTCAATATCTCC</t>
   </si>
   <si>
-    <t>TCTATTTAACTGCCTAGaCGAACTCAAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCaGCCTAGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGaCGAACTCAtTATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGtACTCAtTATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTtGTCGAACTCAtTATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTgGAACTgAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCcAtCTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCgTAGTCGAACTCAAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTcCgTAGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTGCCTtGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTcCCTAGTCGAACaCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTcCCTAGTCGAACTgAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAcTCGAACTgAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGgCTAGTCGAAgTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGgCaAGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTcCCTAGTCGAACTCAAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAAgTGCCTAGTCGAACaCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTtGaCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAcTCGtACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACaGgCTAGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
     <t>TCTATTTAACTGgCTAGTCGAACTCAAaATCTCC</t>
   </si>
   <si>
-    <t>TCTATTTAACTcCCTAGTCGAAgTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTtGTCGAACTgAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGAACTCtAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGAAgTgAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCgTAGTCcAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTgGAACaCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGaCGAtCTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACaGCCTAGaCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGAACTgAAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGgCTAGTCGAACTgAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGAtCTgAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCgTAGTCGAAgTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTGCCTAGTgGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCgTAGaCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTgGAtCTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTtGTCGtACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAAgTGCCTAGTCGAACTCAtTATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGAtCTCAtTATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTcCCTAGTgGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAAgTGCCaAGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGgCTAGTCGAACTCtATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGaCGAACTgAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTtGTCGAAgTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCgTAGTCGAtCTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTgGtACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCgTAGTCGAACaCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACaGCCTtGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTgGAACTCtATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACaGCCTAGTCGAACTCAtTATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACaGCCTAGTCGAAgTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTcCCaAGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGgCTAGTCGAACaCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAAgTGCCTAGTCGAtCTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTtGTCcAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTgGAAgTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGAACaCAAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTGgCTAGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGAACTgAtTATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCaAGTCGAAgTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCaAGTCcAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAcTCGAACTCAAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACaGCCTAGTCcAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTgGAACTCAAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTcCCTAGTCGAACTCtATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAAgTGCCTtGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTcCCTAGTCGtACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCaAGTgGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGaCGAAgTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGtACaCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTgGAACTCAtTATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTcCCTAGaCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGAAgTCtATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCcAACTCtATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTcCCTAGTCGAtCTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAAgTGCCTAcTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAcTCGAACTCtATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCaAGTCGAACTCAAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCgTAGTCGAACTgAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGgCTAGTCGAtCTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCgTtGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGtAgTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAAgTGCCTAGaCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGgCTAcTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCcAACTCAAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACaGCCTAGTCGAACTgAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTGCCTAGTCGAAgTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTcCCTtGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCaAGTCGAACTCtATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGAtCTCAAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTGCCTAGTCGAACaCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGaCGtACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTGCCTAGTCGAACTCAtTATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTGCgTAGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTGCCTAGTCGAtCTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACaGCCTAGTCGAACTCtATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAAgTGCCTAGTCGAACTCAAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGtACTCtATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTtGTCGAACTCAAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAAgTGCCTAGTCcAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTtGTgGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACaGCCTAGTgGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGgCTAGTCcAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCgTAGTCGAACTCAtTATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGtACTgAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTcCCTAGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGaCGAACTCtATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGaCcAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACaGCCTAcTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCgTAGTCGAACTCtATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCgTAGTgGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAAgTGgCTAGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCaAGTCGAACTCAtTATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGgCTAGTgGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCaAGTCGtACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTcCCTAGTCcAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTtGTCGAACaCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACaGCCTAGTCGtACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCaAcTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTGCCaAGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACaGCCaAGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTcCCTAcTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGAACaCAtTATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAcTgGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTGCCTAGTCGAACTgAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCcAACTgAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACaGCCTAGTCGAtCTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTGCCTAGTCGAACTCtATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAAgTGCgTAGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGAAgTCAAaATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACaGCCTAGTCGAACaCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAcTCGAACTCAtTATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTGCCTAGaCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTGCCTAGTCGtACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGaCGAACaCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGAAgTCAtTATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAtCTGCCTAGTCcAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCaAGaCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGgCTtGTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTcCCTAGTCGAACTCAtTATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCgTAGTCGtACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCcAAgTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCgTAcTCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTtGTCGAtCTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCaAGTCGAACTgAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAcTCGAACaCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGgCTAGaCGAACTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAAgTGCCTAGTCGAAgTCAATATCTCC</t>
-  </si>
-  <si>
-    <t>TCTATTTAACTGCCTAGTCGAtCaCAATATCTCC</t>
+    <t>AAATTTTAtaCTCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAagTCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgaCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCagCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTggGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCgcTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCcaGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGacCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTcgAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGgtATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCttTATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAtaATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAAatTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATtaCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATAagCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATggAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCgtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCCtcTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCCAcaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCaCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCgGTGCAATATCCAcTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTcCAATATgCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCCGTGgAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCCGTGCAATATCCtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCgGTGCAATATCgAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATtTCCtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTgCGTGCAATATCCAcTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCgGTGCAATtTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTCCGTGCAATtTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAtTATCCtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCgGTcCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTgCGTGCAATAaCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCCGTGCAATATgCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCcTGCAATATCCtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCCGTGCAAaATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTCCGTGCAATATCCtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTCCGTGCAtTATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTcCtATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGaGCAATATCCAcTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTgTCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTCCcTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGaGCAATATCgAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATtTgCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTCCGTGCAATAaCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAtTATCgAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAAaATgCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCCGTGCAATATCCAcTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGaGCAATtTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATAaCCtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTCCGTcCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCtATATCCtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCCGTGCAATAaCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTCCGTGCAATATCCAcTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCaCCGTGCAATATgCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCtATATCgAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCCGTGCAATATCgAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAtTAaCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCgGTGCAtTATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCaCCGTcCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCCcTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCgGaGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCcTGCAATATCgAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGgAATATCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCCGaGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATtTCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATAaCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTCCGTGgAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTCCGTGCtATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTgCGTGCAAaATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTgCGaGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGgAATAaCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCgGTGCAAaATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCCGTGCAATATCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTgCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGaGCAATATgCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAAaATCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTCCGTGCAtTATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCtATATCCAcTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCcTGCAATtTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCgGTGCAATATCCtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCtAaATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTcCAATtTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGgAATATCCtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGaGCAATATCCtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCtATAaCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTCCGTGCAATATCCtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGgAtTATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATtTCgAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAtTATgCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTCgGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTcCAATATCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCaCCGTGCtATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTCCGTGCtATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCcTGCAATATCCAcTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCcTGCAATATCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCaCCGTGCAATAaCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTgCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCgAcTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTCCGTGCAATAaCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCgGTGgAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCcTGCAtTATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGaGCAATAaCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCcTGCtATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGgAATtTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTcCAtTATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTgCGTGCAATATCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCaCCGaGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTCCcTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCtATATCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCgGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATAaCCAcTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTcCAATAaCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAtTATCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCCGTGCtATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGaGCAAaATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTCCGTGCAATATCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCCtGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCCGTcCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCgGTGCAATATCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTcCAATATCgAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCCGTGCAtTATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTCCGTGCAATtTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGaGCAATATCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTCCGaGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCaCCGTGCAATATCCtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGgAATATCgAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGaGgAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCaCCGTGCAATATCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCcTGCAAaATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCaCCGTGgAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTCCGaGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTCCGTGCAATATgCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTgCGTGgAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCCGTGCAATtTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTgCGTGCAATATCgAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCgGTGCAATATgCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTCCGTGCAATATgCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCaCCcTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTcCAATATCCAcTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCaCCGTGCAATtTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGgAAaATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATgCtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAAaATCgAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGaGCtATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTCCGTGgAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTcCAAaATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTCCGTGCAATATCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTCCGTGCAATATCgAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCaCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCcTcCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCaCCGTGCAATATCgAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTgCGTGCAATATCCtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAAaAaCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCcTGCAATATgCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTCCGTcCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTgCcTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGgAATATCCAcTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAAaATCCAcTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCaCCGTGCAtTATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATAaCgAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTCCGTGCAATATCCAcTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTCCGTGCAAaATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTgCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGgAATATgCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCcTGgAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTgCGTGCAATATgCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATgCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTCgGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCaCgGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAtTtTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTgCGTGCAATtTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCgAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTgCGTGCtATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCcTGCAATAaCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTgCGTcCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCtATtTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCaCCGTGCAAaATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGaGCAtTATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCtATATgCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCgGTGCtATATCCAGTGAGCTC</t>
   </si>
   <si>
     <t>LIN7B</t>
+  </si>
+  <si>
+    <t>ANKRD22</t>
   </si>
   <si>
     <t>TRANSVERSION</t>
@@ -586,8 +1126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,14 +1190,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -704,7 +1236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -736,27 +1268,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,24 +1302,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -981,21 +1477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1017,16 +1506,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1034,16 +1523,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1051,16 +1540,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1068,16 +1557,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1085,16 +1574,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1102,16 +1591,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1119,16 +1608,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1136,16 +1625,16 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1153,16 +1642,16 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,16 +1659,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1187,16 +1676,16 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1204,16 +1693,16 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1221,16 +1710,16 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1238,16 +1727,16 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1255,16 +1744,16 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1272,16 +1761,16 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1289,16 +1778,16 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1306,16 +1795,16 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1323,16 +1812,16 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1340,16 +1829,16 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1357,16 +1846,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1374,16 +1863,16 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1391,16 +1880,16 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1408,16 +1897,16 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1425,16 +1914,16 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1442,16 +1931,16 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1459,16 +1948,16 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1476,16 +1965,16 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1493,16 +1982,16 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1510,16 +1999,16 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1527,16 +2016,16 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1544,16 +2033,16 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1561,16 +2050,16 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1578,16 +2067,16 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1595,16 +2084,16 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1612,16 +2101,16 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1629,16 +2118,16 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E38" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1646,16 +2135,16 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1663,16 +2152,16 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1680,16 +2169,16 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1697,16 +2186,16 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E42" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1714,16 +2203,16 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1731,16 +2220,16 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E44" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1748,16 +2237,16 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1765,16 +2254,16 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E46" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1782,16 +2271,16 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1799,16 +2288,16 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1816,16 +2305,16 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1833,16 +2322,16 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1850,16 +2339,16 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1867,16 +2356,16 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E52" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1884,16 +2373,16 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1901,16 +2390,16 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E54" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1918,16 +2407,16 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E55" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1935,16 +2424,16 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E56" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1952,16 +2441,16 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E57" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1969,16 +2458,16 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1986,16 +2475,16 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2003,16 +2492,16 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E60" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2020,16 +2509,16 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E61" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2037,16 +2526,16 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E62" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2054,16 +2543,16 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E63" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2071,16 +2560,16 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E64" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2088,16 +2577,16 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E65" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2105,16 +2594,16 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E66" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2122,16 +2611,16 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2139,16 +2628,16 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E68" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2156,16 +2645,16 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2173,16 +2662,16 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E70" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2190,16 +2679,16 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E71" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2207,16 +2696,16 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E72" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2224,16 +2713,16 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E73" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2241,16 +2730,16 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E74" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2258,16 +2747,16 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E75" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2275,16 +2764,16 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D76" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E76" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2292,16 +2781,16 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D77" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E77" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2309,16 +2798,16 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D78" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E78" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2326,16 +2815,16 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E79" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2343,16 +2832,16 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D80" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E80" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2360,16 +2849,16 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E81" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2377,16 +2866,16 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D82" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E82" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2394,16 +2883,16 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D83" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E83" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2411,16 +2900,16 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D84" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E84" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2428,16 +2917,16 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D85" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E85" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2445,16 +2934,16 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D86" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E86" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2462,16 +2951,16 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D87" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E87" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2479,16 +2968,16 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D88" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E88" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2496,16 +2985,16 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E89" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2513,16 +3002,16 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D90" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E90" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2530,16 +3019,16 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D91" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E91" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2547,16 +3036,16 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D92" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E92" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2564,16 +3053,16 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D93" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E93" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2581,16 +3070,16 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D94" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E94" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2598,16 +3087,16 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D95" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E95" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2615,16 +3104,16 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E96" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2632,16 +3121,16 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D97" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E97" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2649,16 +3138,16 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E98" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2666,16 +3155,16 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D99" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E99" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2683,16 +3172,16 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D100" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E100" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2700,16 +3189,16 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D101" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E101" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2717,16 +3206,16 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D102" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E102" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2734,16 +3223,16 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D103" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E103" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2751,16 +3240,16 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D104" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E104" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2768,16 +3257,16 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D105" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E105" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2785,16 +3274,16 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D106" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2802,16 +3291,16 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D107" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E107" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2819,16 +3308,16 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D108" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E108" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2836,16 +3325,16 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D109" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E109" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2853,16 +3342,16 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D110" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E110" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2870,16 +3359,16 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D111" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E111" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2887,16 +3376,16 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D112" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E112" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2904,16 +3393,16 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D113" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E113" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2921,16 +3410,16 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D114" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E114" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2938,16 +3427,16 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D115" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E115" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2955,16 +3444,16 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D116" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E116" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2972,16 +3461,16 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D117" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E117" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2989,16 +3478,16 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D118" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E118" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3006,16 +3495,16 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D119" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E119" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3023,16 +3512,16 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D120" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E120" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3040,16 +3529,16 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D121" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E121" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3057,16 +3546,16 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D122" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E122" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3074,16 +3563,16 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D123" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E123" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3091,16 +3580,16 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D124" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E124" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3108,16 +3597,16 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D125" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E125" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3125,16 +3614,16 @@
         <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D126" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E126" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3142,16 +3631,16 @@
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D127" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E127" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3159,16 +3648,16 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D128" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E128" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3176,16 +3665,16 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D129" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E129" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3193,16 +3682,16 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D130" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E130" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3210,16 +3699,16 @@
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D131" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E131" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3227,16 +3716,16 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D132" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E132" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3244,16 +3733,16 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D133" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E133" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3261,16 +3750,16 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D134" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E134" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3278,16 +3767,16 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D135" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E135" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3295,16 +3784,16 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D136" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E136" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3312,16 +3801,16 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D137" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E137" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3329,16 +3818,16 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D138" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E138" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3346,16 +3835,16 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D139" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E139" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3363,16 +3852,16 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D140" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E140" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3380,16 +3869,16 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D141" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E141" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3397,16 +3886,16 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D142" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E142" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3414,16 +3903,16 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D143" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E143" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3431,16 +3920,16 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D144" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E144" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3448,16 +3937,16 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D145" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E145" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3465,16 +3954,16 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D146" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E146" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3482,16 +3971,16 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D147" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E147" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3499,16 +3988,16 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D148" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E148" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3516,16 +4005,16 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D149" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E149" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3533,16 +4022,16 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D150" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E150" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3550,16 +4039,16 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D151" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E151" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3567,16 +4056,16 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D152" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E152" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3584,16 +4073,16 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D153" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E153" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3601,16 +4090,16 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D154" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E154" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3618,16 +4107,16 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D155" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E155" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3635,16 +4124,16 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D156" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E156" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3652,16 +4141,16 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D157" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E157" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3669,16 +4158,16 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D158" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E158" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3686,16 +4175,16 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D159" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E159" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3703,16 +4192,16 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D160" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E160" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3720,16 +4209,16 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D161" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E161" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3737,16 +4226,16 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D162" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E162" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3754,16 +4243,16 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D163" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E163" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3771,16 +4260,16 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D164" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E164" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3788,16 +4277,16 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D165" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E165" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3805,16 +4294,16 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D166" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E166" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3822,16 +4311,16 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D167" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E167" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3839,16 +4328,16 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D168" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E168" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3856,16 +4345,16 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D169" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E169" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3873,16 +4362,16 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D170" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E170" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3890,16 +4379,16 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D171" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E171" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3907,16 +4396,16 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D172" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E172" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3924,16 +4413,16 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D173" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E173" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3941,16 +4430,16 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D174" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E174" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3958,16 +4447,16 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D175" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E175" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3975,16 +4464,16 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D176" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E176" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3992,16 +4481,16 @@
         <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D177" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E177" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4009,16 +4498,16 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D178" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E178" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4026,16 +4515,16 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D179" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E179" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4043,16 +4532,16 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D180" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="E180" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4060,13 +4549,3073 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
+        <v>185</v>
+      </c>
+      <c r="D181" t="s">
+        <v>366</v>
+      </c>
+      <c r="E181" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>186</v>
+      </c>
+      <c r="D182" t="s">
+        <v>367</v>
+      </c>
+      <c r="E182" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>187</v>
+      </c>
+      <c r="D183" t="s">
+        <v>367</v>
+      </c>
+      <c r="E183" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>188</v>
+      </c>
+      <c r="D184" t="s">
+        <v>367</v>
+      </c>
+      <c r="E184" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>189</v>
+      </c>
+      <c r="D185" t="s">
+        <v>367</v>
+      </c>
+      <c r="E185" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="D181" t="s">
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>190</v>
+      </c>
+      <c r="D186" t="s">
+        <v>367</v>
+      </c>
+      <c r="E186" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="E181" t="s">
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>191</v>
+      </c>
+      <c r="D187" t="s">
+        <v>367</v>
+      </c>
+      <c r="E187" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
         <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>192</v>
+      </c>
+      <c r="D188" t="s">
+        <v>367</v>
+      </c>
+      <c r="E188" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>193</v>
+      </c>
+      <c r="D189" t="s">
+        <v>367</v>
+      </c>
+      <c r="E189" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>194</v>
+      </c>
+      <c r="D190" t="s">
+        <v>367</v>
+      </c>
+      <c r="E190" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>195</v>
+      </c>
+      <c r="D191" t="s">
+        <v>367</v>
+      </c>
+      <c r="E191" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>196</v>
+      </c>
+      <c r="D192" t="s">
+        <v>367</v>
+      </c>
+      <c r="E192" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>197</v>
+      </c>
+      <c r="D193" t="s">
+        <v>367</v>
+      </c>
+      <c r="E193" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>198</v>
+      </c>
+      <c r="D194" t="s">
+        <v>367</v>
+      </c>
+      <c r="E194" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>199</v>
+      </c>
+      <c r="D195" t="s">
+        <v>367</v>
+      </c>
+      <c r="E195" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>200</v>
+      </c>
+      <c r="D196" t="s">
+        <v>367</v>
+      </c>
+      <c r="E196" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>201</v>
+      </c>
+      <c r="D197" t="s">
+        <v>367</v>
+      </c>
+      <c r="E197" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>202</v>
+      </c>
+      <c r="D198" t="s">
+        <v>367</v>
+      </c>
+      <c r="E198" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>203</v>
+      </c>
+      <c r="D199" t="s">
+        <v>367</v>
+      </c>
+      <c r="E199" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>204</v>
+      </c>
+      <c r="D200" t="s">
+        <v>367</v>
+      </c>
+      <c r="E200" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>205</v>
+      </c>
+      <c r="D201" t="s">
+        <v>367</v>
+      </c>
+      <c r="E201" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>206</v>
+      </c>
+      <c r="D202" t="s">
+        <v>367</v>
+      </c>
+      <c r="E202" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>207</v>
+      </c>
+      <c r="D203" t="s">
+        <v>367</v>
+      </c>
+      <c r="E203" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>208</v>
+      </c>
+      <c r="D204" t="s">
+        <v>367</v>
+      </c>
+      <c r="E204" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>209</v>
+      </c>
+      <c r="D205" t="s">
+        <v>367</v>
+      </c>
+      <c r="E205" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>210</v>
+      </c>
+      <c r="D206" t="s">
+        <v>367</v>
+      </c>
+      <c r="E206" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>211</v>
+      </c>
+      <c r="D207" t="s">
+        <v>367</v>
+      </c>
+      <c r="E207" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>212</v>
+      </c>
+      <c r="D208" t="s">
+        <v>367</v>
+      </c>
+      <c r="E208" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>213</v>
+      </c>
+      <c r="D209" t="s">
+        <v>367</v>
+      </c>
+      <c r="E209" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>214</v>
+      </c>
+      <c r="D210" t="s">
+        <v>367</v>
+      </c>
+      <c r="E210" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>215</v>
+      </c>
+      <c r="D211" t="s">
+        <v>367</v>
+      </c>
+      <c r="E211" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>216</v>
+      </c>
+      <c r="D212" t="s">
+        <v>367</v>
+      </c>
+      <c r="E212" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>217</v>
+      </c>
+      <c r="D213" t="s">
+        <v>367</v>
+      </c>
+      <c r="E213" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>218</v>
+      </c>
+      <c r="D214" t="s">
+        <v>367</v>
+      </c>
+      <c r="E214" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>219</v>
+      </c>
+      <c r="D215" t="s">
+        <v>367</v>
+      </c>
+      <c r="E215" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>220</v>
+      </c>
+      <c r="D216" t="s">
+        <v>367</v>
+      </c>
+      <c r="E216" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>221</v>
+      </c>
+      <c r="D217" t="s">
+        <v>367</v>
+      </c>
+      <c r="E217" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>222</v>
+      </c>
+      <c r="D218" t="s">
+        <v>367</v>
+      </c>
+      <c r="E218" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>223</v>
+      </c>
+      <c r="D219" t="s">
+        <v>367</v>
+      </c>
+      <c r="E219" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>224</v>
+      </c>
+      <c r="D220" t="s">
+        <v>367</v>
+      </c>
+      <c r="E220" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>225</v>
+      </c>
+      <c r="D221" t="s">
+        <v>367</v>
+      </c>
+      <c r="E221" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>226</v>
+      </c>
+      <c r="D222" t="s">
+        <v>367</v>
+      </c>
+      <c r="E222" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>227</v>
+      </c>
+      <c r="D223" t="s">
+        <v>367</v>
+      </c>
+      <c r="E223" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>228</v>
+      </c>
+      <c r="D224" t="s">
+        <v>367</v>
+      </c>
+      <c r="E224" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>229</v>
+      </c>
+      <c r="D225" t="s">
+        <v>367</v>
+      </c>
+      <c r="E225" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>230</v>
+      </c>
+      <c r="D226" t="s">
+        <v>367</v>
+      </c>
+      <c r="E226" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>231</v>
+      </c>
+      <c r="D227" t="s">
+        <v>367</v>
+      </c>
+      <c r="E227" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>232</v>
+      </c>
+      <c r="D228" t="s">
+        <v>367</v>
+      </c>
+      <c r="E228" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>233</v>
+      </c>
+      <c r="D229" t="s">
+        <v>367</v>
+      </c>
+      <c r="E229" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>234</v>
+      </c>
+      <c r="D230" t="s">
+        <v>367</v>
+      </c>
+      <c r="E230" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>235</v>
+      </c>
+      <c r="D231" t="s">
+        <v>367</v>
+      </c>
+      <c r="E231" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>236</v>
+      </c>
+      <c r="D232" t="s">
+        <v>367</v>
+      </c>
+      <c r="E232" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>237</v>
+      </c>
+      <c r="D233" t="s">
+        <v>367</v>
+      </c>
+      <c r="E233" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>238</v>
+      </c>
+      <c r="D234" t="s">
+        <v>367</v>
+      </c>
+      <c r="E234" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>239</v>
+      </c>
+      <c r="D235" t="s">
+        <v>367</v>
+      </c>
+      <c r="E235" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>240</v>
+      </c>
+      <c r="D236" t="s">
+        <v>367</v>
+      </c>
+      <c r="E236" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>241</v>
+      </c>
+      <c r="D237" t="s">
+        <v>367</v>
+      </c>
+      <c r="E237" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>242</v>
+      </c>
+      <c r="D238" t="s">
+        <v>367</v>
+      </c>
+      <c r="E238" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>243</v>
+      </c>
+      <c r="D239" t="s">
+        <v>367</v>
+      </c>
+      <c r="E239" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>244</v>
+      </c>
+      <c r="D240" t="s">
+        <v>367</v>
+      </c>
+      <c r="E240" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>245</v>
+      </c>
+      <c r="D241" t="s">
+        <v>367</v>
+      </c>
+      <c r="E241" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>246</v>
+      </c>
+      <c r="D242" t="s">
+        <v>367</v>
+      </c>
+      <c r="E242" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>247</v>
+      </c>
+      <c r="D243" t="s">
+        <v>367</v>
+      </c>
+      <c r="E243" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>248</v>
+      </c>
+      <c r="D244" t="s">
+        <v>367</v>
+      </c>
+      <c r="E244" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>249</v>
+      </c>
+      <c r="D245" t="s">
+        <v>367</v>
+      </c>
+      <c r="E245" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>250</v>
+      </c>
+      <c r="D246" t="s">
+        <v>367</v>
+      </c>
+      <c r="E246" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>251</v>
+      </c>
+      <c r="D247" t="s">
+        <v>367</v>
+      </c>
+      <c r="E247" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>252</v>
+      </c>
+      <c r="D248" t="s">
+        <v>367</v>
+      </c>
+      <c r="E248" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>253</v>
+      </c>
+      <c r="D249" t="s">
+        <v>367</v>
+      </c>
+      <c r="E249" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>254</v>
+      </c>
+      <c r="D250" t="s">
+        <v>367</v>
+      </c>
+      <c r="E250" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>255</v>
+      </c>
+      <c r="D251" t="s">
+        <v>367</v>
+      </c>
+      <c r="E251" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>256</v>
+      </c>
+      <c r="D252" t="s">
+        <v>367</v>
+      </c>
+      <c r="E252" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>257</v>
+      </c>
+      <c r="D253" t="s">
+        <v>367</v>
+      </c>
+      <c r="E253" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>258</v>
+      </c>
+      <c r="D254" t="s">
+        <v>367</v>
+      </c>
+      <c r="E254" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>259</v>
+      </c>
+      <c r="D255" t="s">
+        <v>367</v>
+      </c>
+      <c r="E255" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>260</v>
+      </c>
+      <c r="D256" t="s">
+        <v>367</v>
+      </c>
+      <c r="E256" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" t="s">
+        <v>261</v>
+      </c>
+      <c r="D257" t="s">
+        <v>367</v>
+      </c>
+      <c r="E257" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" t="s">
+        <v>262</v>
+      </c>
+      <c r="D258" t="s">
+        <v>367</v>
+      </c>
+      <c r="E258" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>263</v>
+      </c>
+      <c r="D259" t="s">
+        <v>367</v>
+      </c>
+      <c r="E259" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" t="s">
+        <v>264</v>
+      </c>
+      <c r="D260" t="s">
+        <v>367</v>
+      </c>
+      <c r="E260" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>265</v>
+      </c>
+      <c r="D261" t="s">
+        <v>367</v>
+      </c>
+      <c r="E261" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>266</v>
+      </c>
+      <c r="D262" t="s">
+        <v>367</v>
+      </c>
+      <c r="E262" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" t="s">
+        <v>267</v>
+      </c>
+      <c r="D263" t="s">
+        <v>367</v>
+      </c>
+      <c r="E263" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>268</v>
+      </c>
+      <c r="D264" t="s">
+        <v>367</v>
+      </c>
+      <c r="E264" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>269</v>
+      </c>
+      <c r="D265" t="s">
+        <v>367</v>
+      </c>
+      <c r="E265" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>270</v>
+      </c>
+      <c r="D266" t="s">
+        <v>367</v>
+      </c>
+      <c r="E266" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>271</v>
+      </c>
+      <c r="D267" t="s">
+        <v>367</v>
+      </c>
+      <c r="E267" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>272</v>
+      </c>
+      <c r="D268" t="s">
+        <v>367</v>
+      </c>
+      <c r="E268" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>273</v>
+      </c>
+      <c r="D269" t="s">
+        <v>367</v>
+      </c>
+      <c r="E269" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>274</v>
+      </c>
+      <c r="D270" t="s">
+        <v>367</v>
+      </c>
+      <c r="E270" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>275</v>
+      </c>
+      <c r="D271" t="s">
+        <v>367</v>
+      </c>
+      <c r="E271" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>276</v>
+      </c>
+      <c r="D272" t="s">
+        <v>367</v>
+      </c>
+      <c r="E272" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>277</v>
+      </c>
+      <c r="D273" t="s">
+        <v>367</v>
+      </c>
+      <c r="E273" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>278</v>
+      </c>
+      <c r="D274" t="s">
+        <v>367</v>
+      </c>
+      <c r="E274" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>279</v>
+      </c>
+      <c r="D275" t="s">
+        <v>367</v>
+      </c>
+      <c r="E275" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>280</v>
+      </c>
+      <c r="D276" t="s">
+        <v>367</v>
+      </c>
+      <c r="E276" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>281</v>
+      </c>
+      <c r="D277" t="s">
+        <v>367</v>
+      </c>
+      <c r="E277" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>282</v>
+      </c>
+      <c r="D278" t="s">
+        <v>367</v>
+      </c>
+      <c r="E278" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>283</v>
+      </c>
+      <c r="D279" t="s">
+        <v>367</v>
+      </c>
+      <c r="E279" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>284</v>
+      </c>
+      <c r="D280" t="s">
+        <v>367</v>
+      </c>
+      <c r="E280" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>285</v>
+      </c>
+      <c r="D281" t="s">
+        <v>367</v>
+      </c>
+      <c r="E281" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>286</v>
+      </c>
+      <c r="D282" t="s">
+        <v>367</v>
+      </c>
+      <c r="E282" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>287</v>
+      </c>
+      <c r="D283" t="s">
+        <v>367</v>
+      </c>
+      <c r="E283" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>288</v>
+      </c>
+      <c r="D284" t="s">
+        <v>367</v>
+      </c>
+      <c r="E284" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>289</v>
+      </c>
+      <c r="D285" t="s">
+        <v>367</v>
+      </c>
+      <c r="E285" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>290</v>
+      </c>
+      <c r="D286" t="s">
+        <v>367</v>
+      </c>
+      <c r="E286" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>291</v>
+      </c>
+      <c r="D287" t="s">
+        <v>367</v>
+      </c>
+      <c r="E287" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>292</v>
+      </c>
+      <c r="D288" t="s">
+        <v>367</v>
+      </c>
+      <c r="E288" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>293</v>
+      </c>
+      <c r="D289" t="s">
+        <v>367</v>
+      </c>
+      <c r="E289" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290" t="s">
+        <v>294</v>
+      </c>
+      <c r="D290" t="s">
+        <v>367</v>
+      </c>
+      <c r="E290" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+      <c r="C291" t="s">
+        <v>295</v>
+      </c>
+      <c r="D291" t="s">
+        <v>367</v>
+      </c>
+      <c r="E291" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292" t="s">
+        <v>296</v>
+      </c>
+      <c r="D292" t="s">
+        <v>367</v>
+      </c>
+      <c r="E292" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>297</v>
+      </c>
+      <c r="D293" t="s">
+        <v>367</v>
+      </c>
+      <c r="E293" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>298</v>
+      </c>
+      <c r="D294" t="s">
+        <v>367</v>
+      </c>
+      <c r="E294" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295" t="s">
+        <v>299</v>
+      </c>
+      <c r="D295" t="s">
+        <v>367</v>
+      </c>
+      <c r="E295" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>300</v>
+      </c>
+      <c r="D296" t="s">
+        <v>367</v>
+      </c>
+      <c r="E296" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>301</v>
+      </c>
+      <c r="D297" t="s">
+        <v>367</v>
+      </c>
+      <c r="E297" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" t="s">
+        <v>302</v>
+      </c>
+      <c r="D298" t="s">
+        <v>367</v>
+      </c>
+      <c r="E298" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>303</v>
+      </c>
+      <c r="D299" t="s">
+        <v>367</v>
+      </c>
+      <c r="E299" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>304</v>
+      </c>
+      <c r="D300" t="s">
+        <v>367</v>
+      </c>
+      <c r="E300" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>305</v>
+      </c>
+      <c r="D301" t="s">
+        <v>367</v>
+      </c>
+      <c r="E301" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302" t="s">
+        <v>306</v>
+      </c>
+      <c r="D302" t="s">
+        <v>367</v>
+      </c>
+      <c r="E302" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303" t="s">
+        <v>307</v>
+      </c>
+      <c r="D303" t="s">
+        <v>367</v>
+      </c>
+      <c r="E303" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304" t="s">
+        <v>308</v>
+      </c>
+      <c r="D304" t="s">
+        <v>367</v>
+      </c>
+      <c r="E304" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" t="s">
+        <v>309</v>
+      </c>
+      <c r="D305" t="s">
+        <v>367</v>
+      </c>
+      <c r="E305" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306" t="s">
+        <v>310</v>
+      </c>
+      <c r="D306" t="s">
+        <v>367</v>
+      </c>
+      <c r="E306" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>311</v>
+      </c>
+      <c r="D307" t="s">
+        <v>367</v>
+      </c>
+      <c r="E307" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" t="s">
+        <v>312</v>
+      </c>
+      <c r="D308" t="s">
+        <v>367</v>
+      </c>
+      <c r="E308" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C309" t="s">
+        <v>313</v>
+      </c>
+      <c r="D309" t="s">
+        <v>367</v>
+      </c>
+      <c r="E309" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" t="s">
+        <v>314</v>
+      </c>
+      <c r="D310" t="s">
+        <v>367</v>
+      </c>
+      <c r="E310" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>315</v>
+      </c>
+      <c r="D311" t="s">
+        <v>367</v>
+      </c>
+      <c r="E311" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312" t="s">
+        <v>316</v>
+      </c>
+      <c r="D312" t="s">
+        <v>367</v>
+      </c>
+      <c r="E312" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C313" t="s">
+        <v>317</v>
+      </c>
+      <c r="D313" t="s">
+        <v>367</v>
+      </c>
+      <c r="E313" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314" t="s">
+        <v>318</v>
+      </c>
+      <c r="D314" t="s">
+        <v>367</v>
+      </c>
+      <c r="E314" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>319</v>
+      </c>
+      <c r="D315" t="s">
+        <v>367</v>
+      </c>
+      <c r="E315" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" t="s">
+        <v>320</v>
+      </c>
+      <c r="D316" t="s">
+        <v>367</v>
+      </c>
+      <c r="E316" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>321</v>
+      </c>
+      <c r="D317" t="s">
+        <v>367</v>
+      </c>
+      <c r="E317" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318" t="s">
+        <v>322</v>
+      </c>
+      <c r="D318" t="s">
+        <v>367</v>
+      </c>
+      <c r="E318" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319" t="s">
+        <v>323</v>
+      </c>
+      <c r="D319" t="s">
+        <v>367</v>
+      </c>
+      <c r="E319" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320" t="s">
+        <v>324</v>
+      </c>
+      <c r="D320" t="s">
+        <v>367</v>
+      </c>
+      <c r="E320" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321" t="s">
+        <v>325</v>
+      </c>
+      <c r="D321" t="s">
+        <v>367</v>
+      </c>
+      <c r="E321" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" t="s">
+        <v>326</v>
+      </c>
+      <c r="D322" t="s">
+        <v>367</v>
+      </c>
+      <c r="E322" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" t="s">
+        <v>327</v>
+      </c>
+      <c r="D323" t="s">
+        <v>367</v>
+      </c>
+      <c r="E323" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324" t="s">
+        <v>328</v>
+      </c>
+      <c r="D324" t="s">
+        <v>367</v>
+      </c>
+      <c r="E324" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325" t="s">
+        <v>329</v>
+      </c>
+      <c r="D325" t="s">
+        <v>367</v>
+      </c>
+      <c r="E325" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326" t="s">
+        <v>330</v>
+      </c>
+      <c r="D326" t="s">
+        <v>367</v>
+      </c>
+      <c r="E326" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C327" t="s">
+        <v>331</v>
+      </c>
+      <c r="D327" t="s">
+        <v>367</v>
+      </c>
+      <c r="E327" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>332</v>
+      </c>
+      <c r="D328" t="s">
+        <v>367</v>
+      </c>
+      <c r="E328" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" t="s">
+        <v>333</v>
+      </c>
+      <c r="D329" t="s">
+        <v>367</v>
+      </c>
+      <c r="E329" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330" t="s">
+        <v>334</v>
+      </c>
+      <c r="D330" t="s">
+        <v>367</v>
+      </c>
+      <c r="E330" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>5</v>
+      </c>
+      <c r="C331" t="s">
+        <v>335</v>
+      </c>
+      <c r="D331" t="s">
+        <v>367</v>
+      </c>
+      <c r="E331" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332" t="s">
+        <v>336</v>
+      </c>
+      <c r="D332" t="s">
+        <v>367</v>
+      </c>
+      <c r="E332" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>5</v>
+      </c>
+      <c r="C333" t="s">
+        <v>337</v>
+      </c>
+      <c r="D333" t="s">
+        <v>367</v>
+      </c>
+      <c r="E333" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334" t="s">
+        <v>338</v>
+      </c>
+      <c r="D334" t="s">
+        <v>367</v>
+      </c>
+      <c r="E334" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335" t="s">
+        <v>339</v>
+      </c>
+      <c r="D335" t="s">
+        <v>367</v>
+      </c>
+      <c r="E335" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" t="s">
+        <v>340</v>
+      </c>
+      <c r="D336" t="s">
+        <v>367</v>
+      </c>
+      <c r="E336" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" t="s">
+        <v>341</v>
+      </c>
+      <c r="D337" t="s">
+        <v>367</v>
+      </c>
+      <c r="E337" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338" t="s">
+        <v>342</v>
+      </c>
+      <c r="D338" t="s">
+        <v>367</v>
+      </c>
+      <c r="E338" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" t="s">
+        <v>343</v>
+      </c>
+      <c r="D339" t="s">
+        <v>367</v>
+      </c>
+      <c r="E339" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" t="s">
+        <v>344</v>
+      </c>
+      <c r="D340" t="s">
+        <v>367</v>
+      </c>
+      <c r="E340" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" t="s">
+        <v>345</v>
+      </c>
+      <c r="D341" t="s">
+        <v>367</v>
+      </c>
+      <c r="E341" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" t="s">
+        <v>346</v>
+      </c>
+      <c r="D342" t="s">
+        <v>367</v>
+      </c>
+      <c r="E342" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343" t="s">
+        <v>347</v>
+      </c>
+      <c r="D343" t="s">
+        <v>367</v>
+      </c>
+      <c r="E343" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344" t="s">
+        <v>348</v>
+      </c>
+      <c r="D344" t="s">
+        <v>367</v>
+      </c>
+      <c r="E344" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345" t="s">
+        <v>349</v>
+      </c>
+      <c r="D345" t="s">
+        <v>367</v>
+      </c>
+      <c r="E345" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346" t="s">
+        <v>350</v>
+      </c>
+      <c r="D346" t="s">
+        <v>367</v>
+      </c>
+      <c r="E346" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" t="s">
+        <v>351</v>
+      </c>
+      <c r="D347" t="s">
+        <v>367</v>
+      </c>
+      <c r="E347" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>352</v>
+      </c>
+      <c r="D348" t="s">
+        <v>367</v>
+      </c>
+      <c r="E348" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349" t="s">
+        <v>353</v>
+      </c>
+      <c r="D349" t="s">
+        <v>367</v>
+      </c>
+      <c r="E349" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>354</v>
+      </c>
+      <c r="D350" t="s">
+        <v>367</v>
+      </c>
+      <c r="E350" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+      <c r="C351" t="s">
+        <v>355</v>
+      </c>
+      <c r="D351" t="s">
+        <v>367</v>
+      </c>
+      <c r="E351" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352" t="s">
+        <v>356</v>
+      </c>
+      <c r="D352" t="s">
+        <v>367</v>
+      </c>
+      <c r="E352" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" t="s">
+        <v>357</v>
+      </c>
+      <c r="D353" t="s">
+        <v>367</v>
+      </c>
+      <c r="E353" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" t="s">
+        <v>358</v>
+      </c>
+      <c r="D354" t="s">
+        <v>367</v>
+      </c>
+      <c r="E354" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>5</v>
+      </c>
+      <c r="C355" t="s">
+        <v>359</v>
+      </c>
+      <c r="D355" t="s">
+        <v>367</v>
+      </c>
+      <c r="E355" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" t="s">
+        <v>360</v>
+      </c>
+      <c r="D356" t="s">
+        <v>367</v>
+      </c>
+      <c r="E356" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>361</v>
+      </c>
+      <c r="D357" t="s">
+        <v>367</v>
+      </c>
+      <c r="E357" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358" t="s">
+        <v>362</v>
+      </c>
+      <c r="D358" t="s">
+        <v>367</v>
+      </c>
+      <c r="E358" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>363</v>
+      </c>
+      <c r="D359" t="s">
+        <v>367</v>
+      </c>
+      <c r="E359" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360" t="s">
+        <v>364</v>
+      </c>
+      <c r="D360" t="s">
+        <v>367</v>
+      </c>
+      <c r="E360" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+      <c r="C361" t="s">
+        <v>365</v>
+      </c>
+      <c r="D361" t="s">
+        <v>367</v>
+      </c>
+      <c r="E361" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
